--- a/BalanceSheet/GOOG_bal.xlsx
+++ b/BalanceSheet/GOOG_bal.xlsx
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>87606000000.0</v>
+        <v>100204000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>96960000000.0</v>
@@ -962,7 +962,7 @@
         <v>87966000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>84587000000.0</v>
+        <v>73646000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>69252000000.0</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>25294000000.0</v>
+        <v>25757000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20703000000.0</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4167000000.0</v>
+        <v>3704000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3953000000.0</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4801000000.0</v>
+        <v>3819000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>6552000000.0</v>
@@ -2048,7 +2048,7 @@
         <v>3264000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>6375000000.0</v>
+        <v>5561000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>4142000000.0</v>
@@ -2286,10 +2286,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>2978000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2794000000.0</v>
@@ -2739,10 +2737,8 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>45781000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>46966000000.0</v>
@@ -3022,7 +3018,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>13887000000.0</v>
+        <v>25269000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>25078000000.0</v>
@@ -3037,7 +3033,7 @@
         <v>15492000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>14768000000.0</v>
+        <v>4554000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>4082000000.0</v>
@@ -3276,7 +3272,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4406000000.0</v>
+        <v>4377000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4147000000.0</v>
@@ -3291,7 +3287,7 @@
         <v>1524000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>772000000.0</v>
+        <v>1701000000.0</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1747000000.0</v>
@@ -3911,7 +3907,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>672000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1000000.0</v>
@@ -3926,7 +3922,7 @@
         <v>1000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1000000.0</v>
+        <v>688000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>691000.0</v>
@@ -4800,7 +4796,7 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-121217000000.0</v>
+        <v>-106857000000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>-108822000000.0</v>
@@ -4927,7 +4923,7 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>13887000000.0</v>
+        <v>28247000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>27872000000.0</v>

--- a/BalanceSheet/GOOG_bal.xlsx
+++ b/BalanceSheet/GOOG_bal.xlsx
@@ -4811,7 +4811,7 @@
         <v>-100425000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-103708000000.0</v>
+        <v>-113922000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>-117095000000.0</v>
@@ -4938,7 +4938,7 @@
         <v>16804000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>15967000000.0</v>
+        <v>5753000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>4082000000.0</v>
